--- a/artfynd/A 42493-2020.xlsx
+++ b/artfynd/A 42493-2020.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>108284574</v>
+        <v>108284567</v>
       </c>
       <c r="B2" t="n">
         <v>56395</v>
@@ -722,10 +722,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>445714.1228795081</v>
+        <v>445434.438710931</v>
       </c>
       <c r="R2" t="n">
-        <v>7066173.645204219</v>
+        <v>7065991.394450839</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>108284567</v>
+        <v>108284651</v>
       </c>
       <c r="B3" t="n">
         <v>56395</v>
@@ -835,16 +835,18 @@
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>445434.438710931</v>
+        <v>445344.3129855981</v>
       </c>
       <c r="R3" t="n">
-        <v>7065991.394450839</v>
+        <v>7066093.141319267</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -891,7 +893,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -918,7 +920,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>108284581</v>
+        <v>108284574</v>
       </c>
       <c r="B4" t="n">
         <v>56395</v>
@@ -960,10 +962,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>445796.1410013655</v>
+        <v>445714.1228795081</v>
       </c>
       <c r="R4" t="n">
-        <v>7066400.520577709</v>
+        <v>7066173.645204219</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1037,7 +1039,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>108284571</v>
+        <v>108284581</v>
       </c>
       <c r="B5" t="n">
         <v>56395</v>
@@ -1073,22 +1075,16 @@
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>445647.4287634333</v>
+        <v>445796.1410013655</v>
       </c>
       <c r="R5" t="n">
-        <v>7066063.9690001</v>
+        <v>7066400.520577709</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1131,6 +1127,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1157,7 +1158,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>108284577</v>
+        <v>108284571</v>
       </c>
       <c r="B6" t="n">
         <v>56395</v>
@@ -1193,16 +1194,22 @@
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>445809.6948888918</v>
+        <v>445647.4287634333</v>
       </c>
       <c r="R6" t="n">
-        <v>7066181.755240711</v>
+        <v>7066063.9690001</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1245,11 +1252,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1276,7 +1278,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>108284582</v>
+        <v>108284577</v>
       </c>
       <c r="B7" t="n">
         <v>56395</v>
@@ -1318,10 +1320,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>445826.6784053955</v>
+        <v>445809.6948888918</v>
       </c>
       <c r="R7" t="n">
-        <v>7066421.272463826</v>
+        <v>7066181.755240711</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1395,7 +1397,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>108284569</v>
+        <v>108284582</v>
       </c>
       <c r="B8" t="n">
         <v>56395</v>
@@ -1431,18 +1433,16 @@
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>445629.6519997923</v>
+        <v>445826.6784053955</v>
       </c>
       <c r="R8" t="n">
-        <v>7065959.653755097</v>
+        <v>7066421.272463826</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1516,7 +1516,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>108284575</v>
+        <v>108284569</v>
       </c>
       <c r="B9" t="n">
         <v>56395</v>
@@ -1552,16 +1552,18 @@
       <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>445771.9083703306</v>
+        <v>445629.6519997923</v>
       </c>
       <c r="R9" t="n">
-        <v>7066178.414627753</v>
+        <v>7065959.653755097</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1608,7 +1610,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1635,7 +1637,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>108284572</v>
+        <v>108284575</v>
       </c>
       <c r="B10" t="n">
         <v>56395</v>
@@ -1677,10 +1679,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>445661.8261003256</v>
+        <v>445771.9083703306</v>
       </c>
       <c r="R10" t="n">
-        <v>7066100.958404644</v>
+        <v>7066178.414627753</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1754,7 +1756,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>108284568</v>
+        <v>108284572</v>
       </c>
       <c r="B11" t="n">
         <v>56395</v>
@@ -1790,18 +1792,16 @@
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>445617.6319669108</v>
+        <v>445661.8261003256</v>
       </c>
       <c r="R11" t="n">
-        <v>7065957.644219733</v>
+        <v>7066100.958404644</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1875,7 +1875,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>108284573</v>
+        <v>108284568</v>
       </c>
       <c r="B12" t="n">
         <v>56395</v>
@@ -1911,16 +1911,18 @@
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>445713.419994569</v>
+        <v>445617.6319669108</v>
       </c>
       <c r="R12" t="n">
-        <v>7066158.58546807</v>
+        <v>7065957.644219733</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1967,7 +1969,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1994,7 +1996,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>108284570</v>
+        <v>108284573</v>
       </c>
       <c r="B13" t="n">
         <v>56395</v>
@@ -2036,10 +2038,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>445645.5316310733</v>
+        <v>445713.419994569</v>
       </c>
       <c r="R13" t="n">
-        <v>7066056.908801682</v>
+        <v>7066158.58546807</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2113,7 +2115,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>108284576</v>
+        <v>108284570</v>
       </c>
       <c r="B14" t="n">
         <v>56395</v>
@@ -2155,10 +2157,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>445808.7769726648</v>
+        <v>445645.5316310733</v>
       </c>
       <c r="R14" t="n">
-        <v>7066179.997854604</v>
+        <v>7066056.908801682</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2232,7 +2234,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>108284580</v>
+        <v>108284576</v>
       </c>
       <c r="B15" t="n">
         <v>56395</v>
@@ -2274,10 +2276,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>445814.3812344022</v>
+        <v>445808.7769726648</v>
       </c>
       <c r="R15" t="n">
-        <v>7066377.157988134</v>
+        <v>7066179.997854604</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2351,7 +2353,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>108284579</v>
+        <v>108284580</v>
       </c>
       <c r="B16" t="n">
         <v>56395</v>
@@ -2393,10 +2395,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>445845.9283687233</v>
+        <v>445814.3812344022</v>
       </c>
       <c r="R16" t="n">
-        <v>7066327.414423619</v>
+        <v>7066377.157988134</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2470,7 +2472,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>108284651</v>
+        <v>108284579</v>
       </c>
       <c r="B17" t="n">
         <v>56395</v>
@@ -2506,18 +2508,16 @@
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>445344.3129855981</v>
+        <v>445845.9283687233</v>
       </c>
       <c r="R17" t="n">
-        <v>7066093.141319267</v>
+        <v>7066327.414423619</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">

--- a/artfynd/A 42493-2020.xlsx
+++ b/artfynd/A 42493-2020.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>108284567</v>
+        <v>108284574</v>
       </c>
       <c r="B2" t="n">
         <v>56395</v>
@@ -722,10 +722,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>445434.438710931</v>
+        <v>445714.1228795081</v>
       </c>
       <c r="R2" t="n">
-        <v>7065991.394450839</v>
+        <v>7066173.645204219</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>108284651</v>
+        <v>108284567</v>
       </c>
       <c r="B3" t="n">
         <v>56395</v>
@@ -835,18 +835,16 @@
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>445344.3129855981</v>
+        <v>445434.438710931</v>
       </c>
       <c r="R3" t="n">
-        <v>7066093.141319267</v>
+        <v>7065991.394450839</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -893,7 +891,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -920,7 +918,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>108284574</v>
+        <v>108284581</v>
       </c>
       <c r="B4" t="n">
         <v>56395</v>
@@ -962,10 +960,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>445714.1228795081</v>
+        <v>445796.1410013655</v>
       </c>
       <c r="R4" t="n">
-        <v>7066173.645204219</v>
+        <v>7066400.520577709</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1039,7 +1037,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>108284581</v>
+        <v>108284571</v>
       </c>
       <c r="B5" t="n">
         <v>56395</v>
@@ -1075,16 +1073,22 @@
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>445796.1410013655</v>
+        <v>445647.4287634333</v>
       </c>
       <c r="R5" t="n">
-        <v>7066400.520577709</v>
+        <v>7066063.9690001</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1127,11 +1131,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1158,7 +1157,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>108284571</v>
+        <v>108284577</v>
       </c>
       <c r="B6" t="n">
         <v>56395</v>
@@ -1194,22 +1193,16 @@
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>445647.4287634333</v>
+        <v>445809.6948888918</v>
       </c>
       <c r="R6" t="n">
-        <v>7066063.9690001</v>
+        <v>7066181.755240711</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1252,6 +1245,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1278,7 +1276,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>108284577</v>
+        <v>108284582</v>
       </c>
       <c r="B7" t="n">
         <v>56395</v>
@@ -1320,10 +1318,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>445809.6948888918</v>
+        <v>445826.6784053955</v>
       </c>
       <c r="R7" t="n">
-        <v>7066181.755240711</v>
+        <v>7066421.272463826</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1397,7 +1395,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>108284582</v>
+        <v>108284569</v>
       </c>
       <c r="B8" t="n">
         <v>56395</v>
@@ -1433,16 +1431,18 @@
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>445826.6784053955</v>
+        <v>445629.6519997923</v>
       </c>
       <c r="R8" t="n">
-        <v>7066421.272463826</v>
+        <v>7065959.653755097</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1516,7 +1516,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>108284569</v>
+        <v>108284575</v>
       </c>
       <c r="B9" t="n">
         <v>56395</v>
@@ -1552,18 +1552,16 @@
       <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>445629.6519997923</v>
+        <v>445771.9083703306</v>
       </c>
       <c r="R9" t="n">
-        <v>7065959.653755097</v>
+        <v>7066178.414627753</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1610,7 +1608,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1637,7 +1635,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>108284575</v>
+        <v>108284572</v>
       </c>
       <c r="B10" t="n">
         <v>56395</v>
@@ -1679,10 +1677,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>445771.9083703306</v>
+        <v>445661.8261003256</v>
       </c>
       <c r="R10" t="n">
-        <v>7066178.414627753</v>
+        <v>7066100.958404644</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1756,7 +1754,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>108284572</v>
+        <v>108284568</v>
       </c>
       <c r="B11" t="n">
         <v>56395</v>
@@ -1792,16 +1790,18 @@
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>445661.8261003256</v>
+        <v>445617.6319669108</v>
       </c>
       <c r="R11" t="n">
-        <v>7066100.958404644</v>
+        <v>7065957.644219733</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1875,7 +1875,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>108284568</v>
+        <v>108284573</v>
       </c>
       <c r="B12" t="n">
         <v>56395</v>
@@ -1911,18 +1911,16 @@
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>445617.6319669108</v>
+        <v>445713.419994569</v>
       </c>
       <c r="R12" t="n">
-        <v>7065957.644219733</v>
+        <v>7066158.58546807</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1969,7 +1967,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1996,7 +1994,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>108284573</v>
+        <v>108284570</v>
       </c>
       <c r="B13" t="n">
         <v>56395</v>
@@ -2038,10 +2036,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>445713.419994569</v>
+        <v>445645.5316310733</v>
       </c>
       <c r="R13" t="n">
-        <v>7066158.58546807</v>
+        <v>7066056.908801682</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2115,7 +2113,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>108284570</v>
+        <v>108284576</v>
       </c>
       <c r="B14" t="n">
         <v>56395</v>
@@ -2157,10 +2155,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>445645.5316310733</v>
+        <v>445808.7769726648</v>
       </c>
       <c r="R14" t="n">
-        <v>7066056.908801682</v>
+        <v>7066179.997854604</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2234,7 +2232,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>108284576</v>
+        <v>108284580</v>
       </c>
       <c r="B15" t="n">
         <v>56395</v>
@@ -2276,10 +2274,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>445808.7769726648</v>
+        <v>445814.3812344022</v>
       </c>
       <c r="R15" t="n">
-        <v>7066179.997854604</v>
+        <v>7066377.157988134</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2353,7 +2351,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>108284580</v>
+        <v>108284579</v>
       </c>
       <c r="B16" t="n">
         <v>56395</v>
@@ -2395,10 +2393,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>445814.3812344022</v>
+        <v>445845.9283687233</v>
       </c>
       <c r="R16" t="n">
-        <v>7066377.157988134</v>
+        <v>7066327.414423619</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2472,7 +2470,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>108284579</v>
+        <v>108284651</v>
       </c>
       <c r="B17" t="n">
         <v>56395</v>
@@ -2508,16 +2506,18 @@
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>445845.9283687233</v>
+        <v>445344.3129855981</v>
       </c>
       <c r="R17" t="n">
-        <v>7066327.414423619</v>
+        <v>7066093.141319267</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD17" t="b">
